--- a/Kode/Server2/Logs/LTE-node1/2020-05-21.xlsx
+++ b/Kode/Server2/Logs/LTE-node1/2020-05-21.xlsx
@@ -403,7 +403,7 @@
         <v>7.109999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>15.47136</v>
+        <v>15471.36</v>
       </c>
     </row>
     <row r="3">
@@ -423,7 +423,7 @@
         <v>7.14</v>
       </c>
       <c r="F3" t="n">
-        <v>15.50808</v>
+        <v>15508.08</v>
       </c>
     </row>
     <row r="4">
@@ -443,7 +443,7 @@
         <v>6.96</v>
       </c>
       <c r="F4" t="n">
-        <v>15.28416</v>
+        <v>15284.16</v>
       </c>
     </row>
     <row r="5">
@@ -463,7 +463,7 @@
         <v>6.825</v>
       </c>
       <c r="F5" t="n">
-        <v>14.8512</v>
+        <v>14851.2</v>
       </c>
     </row>
     <row r="6">
@@ -483,7 +483,7 @@
         <v>6.75</v>
       </c>
       <c r="F6" t="n">
-        <v>14.742</v>
+        <v>14742</v>
       </c>
     </row>
     <row r="7">
@@ -503,7 +503,7 @@
         <v>6.69</v>
       </c>
       <c r="F7" t="n">
-        <v>14.53068</v>
+        <v>14530.68</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         <v>6.569999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>14.0598</v>
+        <v>14059.8</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         <v>6.48</v>
       </c>
       <c r="F9" t="n">
-        <v>14.20416</v>
+        <v>14204.16</v>
       </c>
     </row>
     <row r="10">
@@ -563,7 +563,7 @@
         <v>6.375</v>
       </c>
       <c r="F10" t="n">
-        <v>13.515</v>
+        <v>13515</v>
       </c>
     </row>
     <row r="11">
@@ -583,7 +583,7 @@
         <v>6.33</v>
       </c>
       <c r="F11" t="n">
-        <v>13.69812</v>
+        <v>13698.12</v>
       </c>
     </row>
     <row r="12">
@@ -603,7 +603,7 @@
         <v>6.3</v>
       </c>
       <c r="F12" t="n">
-        <v>13.6836</v>
+        <v>13683.6</v>
       </c>
     </row>
     <row r="13">
@@ -623,7 +623,7 @@
         <v>6.225</v>
       </c>
       <c r="F13" t="n">
-        <v>13.4958</v>
+        <v>13495.8</v>
       </c>
     </row>
     <row r="14">
@@ -643,7 +643,7 @@
         <v>6.194999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>13.33164</v>
+        <v>13331.64</v>
       </c>
     </row>
     <row r="15">
@@ -663,7 +663,7 @@
         <v>6.21</v>
       </c>
       <c r="F15" t="n">
-        <v>13.5378</v>
+        <v>13537.8</v>
       </c>
     </row>
     <row r="16">
@@ -683,7 +683,7 @@
         <v>6.225</v>
       </c>
       <c r="F16" t="n">
-        <v>13.3713</v>
+        <v>13371.3</v>
       </c>
     </row>
     <row r="17">
@@ -703,7 +703,7 @@
         <v>6.27</v>
       </c>
       <c r="F17" t="n">
-        <v>13.74384</v>
+        <v>13743.84</v>
       </c>
     </row>
     <row r="18">
@@ -723,7 +723,7 @@
         <v>6.255</v>
       </c>
       <c r="F18" t="n">
-        <v>13.48578</v>
+        <v>13485.78</v>
       </c>
     </row>
     <row r="19">
@@ -743,7 +743,7 @@
         <v>6.225</v>
       </c>
       <c r="F19" t="n">
-        <v>13.446</v>
+        <v>13446</v>
       </c>
     </row>
     <row r="20">
@@ -763,7 +763,7 @@
         <v>6.18</v>
       </c>
       <c r="F20" t="n">
-        <v>13.42296</v>
+        <v>13422.96</v>
       </c>
     </row>
     <row r="21">
@@ -783,7 +783,7 @@
         <v>6.105</v>
       </c>
       <c r="F21" t="n">
-        <v>13.38216</v>
+        <v>13382.16</v>
       </c>
     </row>
     <row r="22">
@@ -803,7 +803,7 @@
         <v>6.09</v>
       </c>
       <c r="F22" t="n">
-        <v>13.34928</v>
+        <v>13349.28</v>
       </c>
     </row>
     <row r="23">
@@ -823,7 +823,7 @@
         <v>5.97</v>
       </c>
       <c r="F23" t="n">
-        <v>13.08624</v>
+        <v>13086.24</v>
       </c>
     </row>
     <row r="24">
@@ -843,7 +843,7 @@
         <v>5.865</v>
       </c>
       <c r="F24" t="n">
-        <v>12.80916</v>
+        <v>12809.16</v>
       </c>
     </row>
     <row r="25">
@@ -863,7 +863,7 @@
         <v>5.73</v>
       </c>
       <c r="F25" t="n">
-        <v>12.46848</v>
+        <v>12468.48</v>
       </c>
     </row>
     <row r="26">
@@ -883,7 +883,7 @@
         <v>5.625</v>
       </c>
       <c r="F26" t="n">
-        <v>12.015</v>
+        <v>12015</v>
       </c>
     </row>
     <row r="27">
@@ -903,7 +903,7 @@
         <v>5.52</v>
       </c>
       <c r="F27" t="n">
-        <v>12.05568</v>
+        <v>12055.68</v>
       </c>
     </row>
     <row r="28">
@@ -923,7 +923,7 @@
         <v>5.399999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>11.88</v>
+        <v>11880</v>
       </c>
     </row>
     <row r="29">
@@ -943,7 +943,7 @@
         <v>5.279999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>11.616</v>
+        <v>11616</v>
       </c>
     </row>
     <row r="30">
@@ -963,7 +963,7 @@
         <v>5.205</v>
       </c>
       <c r="F30" t="n">
-        <v>11.59674</v>
+        <v>11596.74</v>
       </c>
     </row>
     <row r="31">
@@ -983,7 +983,7 @@
         <v>5.16</v>
       </c>
       <c r="F31" t="n">
-        <v>11.4552</v>
+        <v>11455.2</v>
       </c>
     </row>
     <row r="32">
@@ -1003,7 +1003,7 @@
         <v>5.085</v>
       </c>
       <c r="F32" t="n">
-        <v>10.94292</v>
+        <v>10942.92</v>
       </c>
     </row>
     <row r="33">
@@ -1023,7 +1023,7 @@
         <v>5.069999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>11.11344</v>
+        <v>11113.44</v>
       </c>
     </row>
     <row r="34">
@@ -1043,7 +1043,7 @@
         <v>5.04</v>
       </c>
       <c r="F34" t="n">
-        <v>11.1888</v>
+        <v>11188.8</v>
       </c>
     </row>
     <row r="35">
@@ -1063,7 +1063,7 @@
         <v>4.965</v>
       </c>
       <c r="F35" t="n">
-        <v>10.96272</v>
+        <v>10962.72</v>
       </c>
     </row>
     <row r="36">
@@ -1083,7 +1083,7 @@
         <v>4.965</v>
       </c>
       <c r="F36" t="n">
-        <v>10.80384</v>
+        <v>10803.84</v>
       </c>
     </row>
     <row r="37">
@@ -1103,7 +1103,7 @@
         <v>4.995</v>
       </c>
       <c r="F37" t="n">
-        <v>10.96902</v>
+        <v>10969.02</v>
       </c>
     </row>
     <row r="38">
@@ -1123,7 +1123,7 @@
         <v>4.875</v>
       </c>
       <c r="F38" t="n">
-        <v>10.7835</v>
+        <v>10783.5</v>
       </c>
     </row>
     <row r="39">
@@ -1143,7 +1143,7 @@
         <v>4.815</v>
       </c>
       <c r="F39" t="n">
-        <v>10.593</v>
+        <v>10593</v>
       </c>
     </row>
     <row r="40">
@@ -1163,7 +1163,7 @@
         <v>4.74</v>
       </c>
       <c r="F40" t="n">
-        <v>10.31424</v>
+        <v>10314.24</v>
       </c>
     </row>
     <row r="41">
@@ -1183,7 +1183,7 @@
         <v>4.68</v>
       </c>
       <c r="F41" t="n">
-        <v>10.52064</v>
+        <v>10520.64</v>
       </c>
     </row>
     <row r="42">
@@ -1203,7 +1203,7 @@
         <v>4.694999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>10.4229</v>
+        <v>10422.9</v>
       </c>
     </row>
     <row r="43">
@@ -1223,7 +1223,7 @@
         <v>4.68</v>
       </c>
       <c r="F43" t="n">
-        <v>10.35216</v>
+        <v>10352.16</v>
       </c>
     </row>
     <row r="44">
@@ -1243,7 +1243,7 @@
         <v>4.56</v>
       </c>
       <c r="F44" t="n">
-        <v>9.940799999999999</v>
+        <v>9940.799999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1263,7 +1263,7 @@
         <v>3.945</v>
       </c>
       <c r="F45" t="n">
-        <v>8.663220000000001</v>
+        <v>8663.220000000001</v>
       </c>
     </row>
     <row r="46">
@@ -1283,7 +1283,7 @@
         <v>4.005</v>
       </c>
       <c r="F46" t="n">
-        <v>8.794980000000001</v>
+        <v>8794.980000000001</v>
       </c>
     </row>
     <row r="47">
@@ -1303,7 +1303,7 @@
         <v>4.02</v>
       </c>
       <c r="F47" t="n">
-        <v>8.7636</v>
+        <v>8763.6</v>
       </c>
     </row>
     <row r="48">
@@ -1323,7 +1323,7 @@
         <v>3.765</v>
       </c>
       <c r="F48" t="n">
-        <v>8.282999999999999</v>
+        <v>8283</v>
       </c>
     </row>
     <row r="49">
@@ -1343,7 +1343,7 @@
         <v>3.63</v>
       </c>
       <c r="F49" t="n">
-        <v>7.89888</v>
+        <v>7898.88</v>
       </c>
     </row>
     <row r="50">
@@ -1363,7 +1363,7 @@
         <v>3.48</v>
       </c>
       <c r="F50" t="n">
-        <v>7.572480000000001</v>
+        <v>7572.480000000001</v>
       </c>
     </row>
     <row r="51">
@@ -1383,7 +1383,7 @@
         <v>3.39</v>
       </c>
       <c r="F51" t="n">
-        <v>7.43088</v>
+        <v>7430.88</v>
       </c>
     </row>
     <row r="52">
@@ -1403,7 +1403,7 @@
         <v>3.21</v>
       </c>
       <c r="F52" t="n">
-        <v>6.959280000000001</v>
+        <v>6959.280000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1423,7 +1423,7 @@
         <v>3.075</v>
       </c>
       <c r="F53" t="n">
-        <v>6.6051</v>
+        <v>6605.1</v>
       </c>
     </row>
     <row r="54">
@@ -1443,7 +1443,7 @@
         <v>3.3</v>
       </c>
       <c r="F54" t="n">
-        <v>7.1676</v>
+        <v>7167.6</v>
       </c>
     </row>
     <row r="55">
@@ -1463,7 +1463,7 @@
         <v>3.405</v>
       </c>
       <c r="F55" t="n">
-        <v>7.43652</v>
+        <v>7436.52</v>
       </c>
     </row>
     <row r="56">
@@ -1483,7 +1483,7 @@
         <v>3.405</v>
       </c>
       <c r="F56" t="n">
-        <v>7.45014</v>
+        <v>7450.14</v>
       </c>
     </row>
     <row r="57">
@@ -1503,7 +1503,7 @@
         <v>3.36</v>
       </c>
       <c r="F57" t="n">
-        <v>7.33824</v>
+        <v>7338.24</v>
       </c>
     </row>
     <row r="58">
@@ -1523,7 +1523,7 @@
         <v>3.225</v>
       </c>
       <c r="F58" t="n">
-        <v>7.017600000000001</v>
+        <v>7017.6</v>
       </c>
     </row>
     <row r="59">
@@ -1543,7 +1543,7 @@
         <v>3.39</v>
       </c>
       <c r="F59" t="n">
-        <v>7.36308</v>
+        <v>7363.08</v>
       </c>
     </row>
     <row r="60">
@@ -1563,7 +1563,7 @@
         <v>3.285</v>
       </c>
       <c r="F60" t="n">
-        <v>7.18758</v>
+        <v>7187.58</v>
       </c>
     </row>
     <row r="61">
@@ -1583,7 +1583,7 @@
         <v>3.195</v>
       </c>
       <c r="F61" t="n">
-        <v>6.93954</v>
+        <v>6939.54</v>
       </c>
     </row>
     <row r="62">
@@ -1603,7 +1603,7 @@
         <v>3.285</v>
       </c>
       <c r="F62" t="n">
-        <v>7.14816</v>
+        <v>7148.16</v>
       </c>
     </row>
     <row r="63">
@@ -1623,7 +1623,7 @@
         <v>3.435</v>
       </c>
       <c r="F63" t="n">
-        <v>7.502040000000001</v>
+        <v>7502.040000000001</v>
       </c>
     </row>
     <row r="64">
@@ -1643,7 +1643,7 @@
         <v>3.21</v>
       </c>
       <c r="F64" t="n">
-        <v>6.869400000000001</v>
+        <v>6869.400000000001</v>
       </c>
     </row>
     <row r="65">
@@ -1663,7 +1663,7 @@
         <v>3.39</v>
       </c>
       <c r="F65" t="n">
-        <v>7.37664</v>
+        <v>7376.64</v>
       </c>
     </row>
     <row r="66">
@@ -1683,7 +1683,7 @@
         <v>3.495</v>
       </c>
       <c r="F66" t="n">
-        <v>7.66104</v>
+        <v>7661.04</v>
       </c>
     </row>
     <row r="67">
@@ -1703,7 +1703,7 @@
         <v>3.585</v>
       </c>
       <c r="F67" t="n">
-        <v>7.944360000000001</v>
+        <v>7944.360000000001</v>
       </c>
     </row>
     <row r="68">
@@ -1723,7 +1723,7 @@
         <v>3.72</v>
       </c>
       <c r="F68" t="n">
-        <v>8.12448</v>
+        <v>8124.48</v>
       </c>
     </row>
     <row r="69">
@@ -1743,7 +1743,7 @@
         <v>4.05</v>
       </c>
       <c r="F69" t="n">
-        <v>8.877600000000001</v>
+        <v>8877.6</v>
       </c>
     </row>
     <row r="70">
@@ -1763,7 +1763,7 @@
         <v>4.274999999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>9.3879</v>
+        <v>9387.9</v>
       </c>
     </row>
     <row r="71">
@@ -1783,7 +1783,7 @@
         <v>4.215</v>
       </c>
       <c r="F71" t="n">
-        <v>9.3573</v>
+        <v>9357.300000000001</v>
       </c>
     </row>
     <row r="72">
@@ -1803,7 +1803,7 @@
         <v>3.945</v>
       </c>
       <c r="F72" t="n">
-        <v>8.615880000000001</v>
+        <v>8615.880000000001</v>
       </c>
     </row>
     <row r="73">
@@ -1823,7 +1823,7 @@
         <v>4.35</v>
       </c>
       <c r="F73" t="n">
-        <v>9.622199999999999</v>
+        <v>9622.199999999999</v>
       </c>
     </row>
     <row r="74">
@@ -1843,7 +1843,7 @@
         <v>4.005</v>
       </c>
       <c r="F74" t="n">
-        <v>8.714880000000001</v>
+        <v>8714.880000000001</v>
       </c>
     </row>
     <row r="75">
@@ -1863,7 +1863,7 @@
         <v>3.945</v>
       </c>
       <c r="F75" t="n">
-        <v>8.663220000000001</v>
+        <v>8663.220000000001</v>
       </c>
     </row>
     <row r="76">
@@ -1883,7 +1883,7 @@
         <v>4.125</v>
       </c>
       <c r="F76" t="n">
-        <v>9.009</v>
+        <v>9009</v>
       </c>
     </row>
     <row r="77">
@@ -1903,7 +1903,7 @@
         <v>3.96</v>
       </c>
       <c r="F77" t="n">
-        <v>8.696160000000001</v>
+        <v>8696.160000000002</v>
       </c>
     </row>
     <row r="78">
@@ -1923,7 +1923,7 @@
         <v>4.065</v>
       </c>
       <c r="F78" t="n">
-        <v>8.81292</v>
+        <v>8812.92</v>
       </c>
     </row>
     <row r="79">
@@ -1943,7 +1943,7 @@
         <v>3.93</v>
       </c>
       <c r="F79" t="n">
-        <v>8.630280000000001</v>
+        <v>8630.280000000001</v>
       </c>
     </row>
     <row r="80">
@@ -1963,7 +1963,7 @@
         <v>3.975</v>
       </c>
       <c r="F80" t="n">
-        <v>8.601900000000001</v>
+        <v>8601.900000000001</v>
       </c>
     </row>
     <row r="81">
@@ -1983,7 +1983,7 @@
         <v>3.9</v>
       </c>
       <c r="F81" t="n">
-        <v>8.533200000000001</v>
+        <v>8533.200000000001</v>
       </c>
     </row>
     <row r="82">
@@ -2003,7 +2003,7 @@
         <v>3.87</v>
       </c>
       <c r="F82" t="n">
-        <v>8.40564</v>
+        <v>8405.639999999999</v>
       </c>
     </row>
     <row r="83">
@@ -2023,7 +2023,7 @@
         <v>3.855</v>
       </c>
       <c r="F83" t="n">
-        <v>8.373060000000001</v>
+        <v>8373.060000000001</v>
       </c>
     </row>
     <row r="84">
@@ -2043,7 +2043,7 @@
         <v>3.765</v>
       </c>
       <c r="F84" t="n">
-        <v>8.32818</v>
+        <v>8328.18</v>
       </c>
     </row>
     <row r="85">
@@ -2063,7 +2063,7 @@
         <v>3.63</v>
       </c>
       <c r="F85" t="n">
-        <v>8.015040000000001</v>
+        <v>8015.040000000001</v>
       </c>
     </row>
     <row r="86">
@@ -2083,7 +2083,7 @@
         <v>3.75</v>
       </c>
       <c r="F86" t="n">
-        <v>8.265000000000001</v>
+        <v>8265</v>
       </c>
     </row>
     <row r="87">
@@ -2103,7 +2103,7 @@
         <v>3.675</v>
       </c>
       <c r="F87" t="n">
-        <v>7.9821</v>
+        <v>7982.1</v>
       </c>
     </row>
     <row r="88">
@@ -2123,7 +2123,7 @@
         <v>3.63</v>
       </c>
       <c r="F88" t="n">
-        <v>7.88436</v>
+        <v>7884.36</v>
       </c>
     </row>
     <row r="89">
@@ -2143,7 +2143,7 @@
         <v>3.705</v>
       </c>
       <c r="F89" t="n">
-        <v>8.002800000000001</v>
+        <v>8002.8</v>
       </c>
     </row>
     <row r="90">
@@ -2163,7 +2163,7 @@
         <v>3.705</v>
       </c>
       <c r="F90" t="n">
-        <v>8.09172</v>
+        <v>8091.72</v>
       </c>
     </row>
     <row r="91">
@@ -2183,7 +2183,7 @@
         <v>3.81</v>
       </c>
       <c r="F91" t="n">
-        <v>8.351520000000001</v>
+        <v>8351.52</v>
       </c>
     </row>
     <row r="92">
@@ -2203,7 +2203,7 @@
         <v>3.75</v>
       </c>
       <c r="F92" t="n">
-        <v>8.220000000000001</v>
+        <v>8220</v>
       </c>
     </row>
     <row r="93">
@@ -2223,7 +2223,7 @@
         <v>3.645</v>
       </c>
       <c r="F93" t="n">
-        <v>7.9461</v>
+        <v>7946.1</v>
       </c>
     </row>
     <row r="94">
@@ -2243,7 +2243,7 @@
         <v>3.6</v>
       </c>
       <c r="F94" t="n">
-        <v>7.8336</v>
+        <v>7833.599999999999</v>
       </c>
     </row>
     <row r="95">
@@ -2263,7 +2263,7 @@
         <v>3.69</v>
       </c>
       <c r="F95" t="n">
-        <v>8.118</v>
+        <v>8118</v>
       </c>
     </row>
     <row r="96">
@@ -2283,7 +2283,7 @@
         <v>3.735</v>
       </c>
       <c r="F96" t="n">
-        <v>8.097480000000001</v>
+        <v>8097.48</v>
       </c>
     </row>
     <row r="97">
@@ -2303,7 +2303,7 @@
         <v>3.84</v>
       </c>
       <c r="F97" t="n">
-        <v>8.386560000000001</v>
+        <v>8386.560000000001</v>
       </c>
     </row>
     <row r="98">
@@ -2323,7 +2323,7 @@
         <v>3.87</v>
       </c>
       <c r="F98" t="n">
-        <v>8.467560000000001</v>
+        <v>8467.560000000001</v>
       </c>
     </row>
     <row r="99">
@@ -2343,7 +2343,7 @@
         <v>3.84</v>
       </c>
       <c r="F99" t="n">
-        <v>8.46336</v>
+        <v>8463.360000000001</v>
       </c>
     </row>
     <row r="100">
@@ -2363,7 +2363,7 @@
         <v>3.825</v>
       </c>
       <c r="F100" t="n">
-        <v>8.3232</v>
+        <v>8323.200000000001</v>
       </c>
     </row>
     <row r="101">
@@ -2383,7 +2383,7 @@
         <v>3.87</v>
       </c>
       <c r="F101" t="n">
-        <v>8.52948</v>
+        <v>8529.48</v>
       </c>
     </row>
     <row r="102">
@@ -2403,7 +2403,7 @@
         <v>3.795</v>
       </c>
       <c r="F102" t="n">
-        <v>8.303460000000001</v>
+        <v>8303.460000000001</v>
       </c>
     </row>
     <row r="103">
@@ -2423,7 +2423,7 @@
         <v>3.75</v>
       </c>
       <c r="F103" t="n">
-        <v>8.145000000000001</v>
+        <v>8145.000000000001</v>
       </c>
     </row>
     <row r="104">
@@ -2443,7 +2443,7 @@
         <v>3.765</v>
       </c>
       <c r="F104" t="n">
-        <v>8.29806</v>
+        <v>8298.059999999999</v>
       </c>
     </row>
     <row r="105">
@@ -2463,7 +2463,7 @@
         <v>3.795</v>
       </c>
       <c r="F105" t="n">
-        <v>8.349</v>
+        <v>8349</v>
       </c>
     </row>
     <row r="106">
@@ -2483,7 +2483,7 @@
         <v>3.735</v>
       </c>
       <c r="F106" t="n">
-        <v>8.291700000000001</v>
+        <v>8291.700000000001</v>
       </c>
     </row>
     <row r="107">
@@ -2503,7 +2503,7 @@
         <v>3.72</v>
       </c>
       <c r="F107" t="n">
-        <v>0.008243520000000001</v>
+        <v>8.24352</v>
       </c>
     </row>
     <row r="108">
@@ -2523,7 +2523,7 @@
         <v>3.615</v>
       </c>
       <c r="F108" t="n">
-        <v>0.007909620000000001</v>
+        <v>7.909620000000001</v>
       </c>
     </row>
     <row r="109">
@@ -2543,7 +2543,7 @@
         <v>3.48</v>
       </c>
       <c r="F109" t="n">
-        <v>0.00757248</v>
+        <v>7.572480000000001</v>
       </c>
     </row>
     <row r="110">
@@ -2563,7 +2563,7 @@
         <v>3.45</v>
       </c>
       <c r="F110" t="n">
-        <v>0.007548600000000001</v>
+        <v>7.5486</v>
       </c>
     </row>
     <row r="111">
@@ -2583,7 +2583,7 @@
         <v>3.285</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0071613</v>
+        <v>7.1613</v>
       </c>
     </row>
     <row r="112">
@@ -2603,7 +2603,7 @@
         <v>3.225</v>
       </c>
       <c r="F112" t="n">
-        <v>0.006978900000000001</v>
+        <v>6.978900000000001</v>
       </c>
     </row>
     <row r="113">
@@ -2623,7 +2623,7 @@
         <v>3.15</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0068166</v>
+        <v>6.8166</v>
       </c>
     </row>
     <row r="114">
@@ -2643,7 +2643,7 @@
         <v>2.97</v>
       </c>
       <c r="F114" t="n">
-        <v>0.00640332</v>
+        <v>6.40332</v>
       </c>
     </row>
     <row r="115">
@@ -2663,7 +2663,7 @@
         <v>2.865</v>
       </c>
       <c r="F115" t="n">
-        <v>0.006096719999999999</v>
+        <v>6.096719999999999</v>
       </c>
     </row>
     <row r="116">
@@ -2683,7 +2683,7 @@
         <v>2.88</v>
       </c>
       <c r="F116" t="n">
-        <v>0.00615168</v>
+        <v>6.15168</v>
       </c>
     </row>
     <row r="117">
@@ -2703,7 +2703,7 @@
         <v>2.7</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0057564</v>
+        <v>5.7564</v>
       </c>
     </row>
     <row r="118">
@@ -2723,7 +2723,7 @@
         <v>2.895</v>
       </c>
       <c r="F118" t="n">
-        <v>0.006195300000000001</v>
+        <v>6.1953</v>
       </c>
     </row>
     <row r="119">
@@ -2743,7 +2743,7 @@
         <v>2.94</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0062916</v>
+        <v>6.2916</v>
       </c>
     </row>
     <row r="120">
@@ -2763,7 +2763,7 @@
         <v>2.925</v>
       </c>
       <c r="F120" t="n">
-        <v>0.0062829</v>
+        <v>6.2829</v>
       </c>
     </row>
     <row r="121">
@@ -2783,7 +2783,7 @@
         <v>3.075</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0066543</v>
+        <v>6.6543</v>
       </c>
     </row>
     <row r="122">
@@ -2803,7 +2803,7 @@
         <v>3.15</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0068544</v>
+        <v>6.8544</v>
       </c>
     </row>
     <row r="123">
@@ -2823,7 +2823,7 @@
         <v>3.33</v>
       </c>
       <c r="F123" t="n">
-        <v>0.007272720000000001</v>
+        <v>7.272720000000001</v>
       </c>
     </row>
     <row r="124">
@@ -2843,7 +2843,7 @@
         <v>3.555</v>
       </c>
       <c r="F124" t="n">
-        <v>0.00777834</v>
+        <v>7.77834</v>
       </c>
     </row>
     <row r="125">
@@ -2863,7 +2863,7 @@
         <v>3.645</v>
       </c>
       <c r="F125" t="n">
-        <v>0.007931520000000001</v>
+        <v>7.931520000000001</v>
       </c>
     </row>
     <row r="126">
@@ -2883,7 +2883,7 @@
         <v>3.72</v>
       </c>
       <c r="F126" t="n">
-        <v>0.00816912</v>
+        <v>8.169119999999999</v>
       </c>
     </row>
     <row r="127">
@@ -2903,7 +2903,7 @@
         <v>3.615</v>
       </c>
       <c r="F127" t="n">
-        <v>0.007953</v>
+        <v>7.953</v>
       </c>
     </row>
     <row r="128">
@@ -2923,7 +2923,7 @@
         <v>3.57</v>
       </c>
       <c r="F128" t="n">
-        <v>0.007782600000000001</v>
+        <v>7.7826</v>
       </c>
     </row>
     <row r="129">
@@ -2943,7 +2943,7 @@
         <v>3.075</v>
       </c>
       <c r="F129" t="n">
-        <v>0.0066666</v>
+        <v>6.6666</v>
       </c>
     </row>
     <row r="130">
@@ -2963,7 +2963,7 @@
         <v>2.91</v>
       </c>
       <c r="F130" t="n">
-        <v>0.00623904</v>
+        <v>6.23904</v>
       </c>
     </row>
     <row r="131">
@@ -2983,7 +2983,7 @@
         <v>2.76</v>
       </c>
       <c r="F131" t="n">
-        <v>0.00588432</v>
+        <v>5.88432</v>
       </c>
     </row>
     <row r="132">
@@ -3003,7 +3003,7 @@
         <v>2.805</v>
       </c>
       <c r="F132" t="n">
-        <v>0.00595782</v>
+        <v>5.95782</v>
       </c>
     </row>
     <row r="133">
@@ -3023,7 +3023,7 @@
         <v>2.835</v>
       </c>
       <c r="F133" t="n">
-        <v>0.00610092</v>
+        <v>6.10092</v>
       </c>
     </row>
     <row r="134">
@@ -3043,7 +3043,7 @@
         <v>2.94</v>
       </c>
       <c r="F134" t="n">
-        <v>0.00632688</v>
+        <v>6.32688</v>
       </c>
     </row>
     <row r="135">
@@ -3063,7 +3063,7 @@
         <v>2.94</v>
       </c>
       <c r="F135" t="n">
-        <v>0.00632688</v>
+        <v>6.32688</v>
       </c>
     </row>
     <row r="136">
@@ -3083,7 +3083,7 @@
         <v>2.91</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0062856</v>
+        <v>6.2856</v>
       </c>
     </row>
     <row r="137">
@@ -3103,7 +3103,7 @@
         <v>2.895</v>
       </c>
       <c r="F137" t="n">
-        <v>0.00624162</v>
+        <v>6.24162</v>
       </c>
     </row>
     <row r="138">
@@ -3123,7 +3123,7 @@
         <v>2.805</v>
       </c>
       <c r="F138" t="n">
-        <v>0.00599148</v>
+        <v>5.99148</v>
       </c>
     </row>
     <row r="139">
@@ -3143,7 +3143,7 @@
         <v>2.685</v>
       </c>
       <c r="F139" t="n">
-        <v>0.00571368</v>
+        <v>5.713679999999999</v>
       </c>
     </row>
     <row r="140">
@@ -3163,7 +3163,7 @@
         <v>2.49</v>
       </c>
       <c r="F140" t="n">
-        <v>0.00523896</v>
+        <v>5.23896</v>
       </c>
     </row>
     <row r="141">
@@ -3183,7 +3183,7 @@
         <v>2.4</v>
       </c>
       <c r="F141" t="n">
-        <v>0.0050592</v>
+        <v>5.0592</v>
       </c>
     </row>
     <row r="142">
@@ -3203,7 +3203,7 @@
         <v>2.205</v>
       </c>
       <c r="F142" t="n">
-        <v>0.00460404</v>
+        <v>4.60404</v>
       </c>
     </row>
     <row r="143">
@@ -3223,7 +3223,7 @@
         <v>2.25</v>
       </c>
       <c r="F143" t="n">
-        <v>0.004698000000000001</v>
+        <v>4.698</v>
       </c>
     </row>
     <row r="144">
@@ -3243,7 +3243,7 @@
         <v>2.205</v>
       </c>
       <c r="F144" t="n">
-        <v>0.00457758</v>
+        <v>4.57758</v>
       </c>
     </row>
     <row r="145">
@@ -3263,7 +3263,7 @@
         <v>2.13</v>
       </c>
       <c r="F145" t="n">
-        <v>0.00439632</v>
+        <v>4.396319999999999</v>
       </c>
     </row>
     <row r="146">
@@ -3283,7 +3283,7 @@
         <v>2.085</v>
       </c>
       <c r="F146" t="n">
-        <v>0.00427008</v>
+        <v>4.27008</v>
       </c>
     </row>
     <row r="147">
@@ -3303,7 +3303,7 @@
         <v>2.04</v>
       </c>
       <c r="F147" t="n">
-        <v>0.00413712</v>
+        <v>4.13712</v>
       </c>
     </row>
     <row r="148">
@@ -3323,7 +3323,7 @@
         <v>2.055</v>
       </c>
       <c r="F148" t="n">
-        <v>0.004183979999999999</v>
+        <v>4.183979999999998</v>
       </c>
     </row>
     <row r="149">
@@ -3343,7 +3343,7 @@
         <v>2.055</v>
       </c>
       <c r="F149" t="n">
-        <v>0.004183979999999999</v>
+        <v>4.183979999999998</v>
       </c>
     </row>
     <row r="150">
@@ -3363,7 +3363,7 @@
         <v>2.07</v>
       </c>
       <c r="F150" t="n">
-        <v>0.00423108</v>
+        <v>4.23108</v>
       </c>
     </row>
     <row r="151">
@@ -3383,7 +3383,7 @@
         <v>1.98</v>
       </c>
       <c r="F151" t="n">
-        <v>0.00398376</v>
+        <v>3.98376</v>
       </c>
     </row>
     <row r="152">
@@ -3403,7 +3403,7 @@
         <v>1.965</v>
       </c>
       <c r="F152" t="n">
-        <v>0.00394572</v>
+        <v>3.94572</v>
       </c>
     </row>
     <row r="153">
@@ -3423,7 +3423,7 @@
         <v>2.04</v>
       </c>
       <c r="F153" t="n">
-        <v>0.00413712</v>
+        <v>4.13712</v>
       </c>
     </row>
     <row r="154">
@@ -3443,7 +3443,7 @@
         <v>2.04</v>
       </c>
       <c r="F154" t="n">
-        <v>0.00414528</v>
+        <v>4.145280000000001</v>
       </c>
     </row>
     <row r="155">
@@ -3463,7 +3463,7 @@
         <v>2.04</v>
       </c>
       <c r="F155" t="n">
-        <v>0.00414528</v>
+        <v>4.145280000000001</v>
       </c>
     </row>
     <row r="156">
@@ -3483,7 +3483,7 @@
         <v>2.145</v>
       </c>
       <c r="F156" t="n">
-        <v>0.00443586</v>
+        <v>4.43586</v>
       </c>
     </row>
     <row r="157">
@@ -3503,7 +3503,7 @@
         <v>2.25</v>
       </c>
       <c r="F157" t="n">
-        <v>0.004689</v>
+        <v>4.688999999999999</v>
       </c>
     </row>
     <row r="158">
@@ -3523,7 +3523,7 @@
         <v>2.31</v>
       </c>
       <c r="F158" t="n">
-        <v>0.00486024</v>
+        <v>4.86024</v>
       </c>
     </row>
     <row r="159">
@@ -3543,7 +3543,7 @@
         <v>2.325</v>
       </c>
       <c r="F159" t="n">
-        <v>0.004873199999999999</v>
+        <v>4.8732</v>
       </c>
     </row>
     <row r="160">
@@ -3563,7 +3563,7 @@
         <v>2.31</v>
       </c>
       <c r="F160" t="n">
-        <v>0.004851</v>
+        <v>4.851</v>
       </c>
     </row>
     <row r="161">
@@ -3583,7 +3583,7 @@
         <v>2.28</v>
       </c>
       <c r="F161" t="n">
-        <v>0.00477888</v>
+        <v>4.77888</v>
       </c>
     </row>
     <row r="162">
@@ -3603,7 +3603,7 @@
         <v>2.265</v>
       </c>
       <c r="F162" t="n">
-        <v>0.00472026</v>
+        <v>4.720260000000001</v>
       </c>
     </row>
     <row r="163">
@@ -3623,7 +3623,7 @@
         <v>2.28</v>
       </c>
       <c r="F163" t="n">
-        <v>0.00477888</v>
+        <v>4.77888</v>
       </c>
     </row>
     <row r="164">
@@ -3643,7 +3643,7 @@
         <v>2.265</v>
       </c>
       <c r="F164" t="n">
-        <v>0.00473838</v>
+        <v>4.73838</v>
       </c>
     </row>
     <row r="165">
@@ -3663,7 +3663,7 @@
         <v>2.295</v>
       </c>
       <c r="F165" t="n">
-        <v>0.00481032</v>
+        <v>4.81032</v>
       </c>
     </row>
     <row r="166">
@@ -3683,7 +3683,7 @@
         <v>2.295</v>
       </c>
       <c r="F166" t="n">
-        <v>0.00481032</v>
+        <v>4.81032</v>
       </c>
     </row>
     <row r="167">
@@ -3703,7 +3703,7 @@
         <v>2.295</v>
       </c>
       <c r="F167" t="n">
-        <v>0.0048195</v>
+        <v>4.8195</v>
       </c>
     </row>
     <row r="168">
@@ -3723,7 +3723,7 @@
         <v>2.31</v>
       </c>
       <c r="F168" t="n">
-        <v>0.004832520000000001</v>
+        <v>4.832520000000001</v>
       </c>
     </row>
     <row r="169">
@@ -3743,7 +3743,7 @@
         <v>2.31</v>
       </c>
       <c r="F169" t="n">
-        <v>0.004841760000000001</v>
+        <v>4.841760000000002</v>
       </c>
     </row>
     <row r="170">
@@ -3763,7 +3763,7 @@
         <v>2.235</v>
       </c>
       <c r="F170" t="n">
-        <v>0.004666679999999999</v>
+        <v>4.666679999999999</v>
       </c>
     </row>
     <row r="171">
@@ -3783,7 +3783,7 @@
         <v>2.19</v>
       </c>
       <c r="F171" t="n">
-        <v>0.00456396</v>
+        <v>4.56396</v>
       </c>
     </row>
     <row r="172">
@@ -3803,7 +3803,7 @@
         <v>2.13</v>
       </c>
       <c r="F172" t="n">
-        <v>0.00441336</v>
+        <v>4.41336</v>
       </c>
     </row>
     <row r="173">
@@ -3823,7 +3823,7 @@
         <v>2.07</v>
       </c>
       <c r="F173" t="n">
-        <v>0.00423108</v>
+        <v>4.23108</v>
       </c>
     </row>
     <row r="174">
@@ -3843,7 +3843,7 @@
         <v>2.085</v>
       </c>
       <c r="F174" t="n">
-        <v>0.00426174</v>
+        <v>4.26174</v>
       </c>
     </row>
     <row r="175">
@@ -3863,7 +3863,7 @@
         <v>2.07</v>
       </c>
       <c r="F175" t="n">
-        <v>0.00423108</v>
+        <v>4.23108</v>
       </c>
     </row>
     <row r="176">
@@ -3883,7 +3883,7 @@
         <v>2.055</v>
       </c>
       <c r="F176" t="n">
-        <v>0.0041922</v>
+        <v>4.1922</v>
       </c>
     </row>
     <row r="177">
@@ -3903,7 +3903,7 @@
         <v>2.025</v>
       </c>
       <c r="F177" t="n">
-        <v>0.0041067</v>
+        <v>4.1067</v>
       </c>
     </row>
     <row r="178">
@@ -3923,7 +3923,7 @@
         <v>1.98</v>
       </c>
       <c r="F178" t="n">
-        <v>0.00397584</v>
+        <v>3.975839999999999</v>
       </c>
     </row>
     <row r="179">
@@ -3943,7 +3943,7 @@
         <v>1.92</v>
       </c>
       <c r="F179" t="n">
-        <v>0.00382464</v>
+        <v>3.82464</v>
       </c>
     </row>
     <row r="180">
@@ -3963,7 +3963,7 @@
         <v>1.935</v>
       </c>
       <c r="F180" t="n">
-        <v>0.00387</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="181">
@@ -3983,7 +3983,7 @@
         <v>2.355</v>
       </c>
       <c r="F181" t="n">
-        <v>0.004936080000000001</v>
+        <v>4.93608</v>
       </c>
     </row>
     <row r="182">
@@ -4003,7 +4003,7 @@
         <v>2.385</v>
       </c>
       <c r="F182" t="n">
-        <v>0.00501804</v>
+        <v>5.01804</v>
       </c>
     </row>
     <row r="183">
@@ -4023,7 +4023,7 @@
         <v>2.355</v>
       </c>
       <c r="F183" t="n">
-        <v>0.00492666</v>
+        <v>4.92666</v>
       </c>
     </row>
     <row r="184">
@@ -4043,7 +4043,7 @@
         <v>2.31</v>
       </c>
       <c r="F184" t="n">
-        <v>0.004851</v>
+        <v>4.851</v>
       </c>
     </row>
     <row r="185">
@@ -4063,7 +4063,7 @@
         <v>2.295</v>
       </c>
       <c r="F185" t="n">
-        <v>0.00479196</v>
+        <v>4.79196</v>
       </c>
     </row>
     <row r="186">
@@ -4083,7 +4083,7 @@
         <v>2.265</v>
       </c>
       <c r="F186" t="n">
-        <v>0.00472932</v>
+        <v>4.72932</v>
       </c>
     </row>
     <row r="187">
@@ -4103,7 +4103,7 @@
         <v>2.25</v>
       </c>
       <c r="F187" t="n">
-        <v>0.004689</v>
+        <v>4.688999999999999</v>
       </c>
     </row>
     <row r="188">
@@ -4123,7 +4123,7 @@
         <v>2.235</v>
       </c>
       <c r="F188" t="n">
-        <v>0.00465774</v>
+        <v>4.65774</v>
       </c>
     </row>
     <row r="189">
@@ -4143,7 +4143,7 @@
         <v>2.25</v>
       </c>
       <c r="F189" t="n">
-        <v>0.004707</v>
+        <v>4.707</v>
       </c>
     </row>
     <row r="190">
@@ -4163,7 +4163,7 @@
         <v>2.235</v>
       </c>
       <c r="F190" t="n">
-        <v>0.00465774</v>
+        <v>4.65774</v>
       </c>
     </row>
     <row r="191">
@@ -4183,7 +4183,7 @@
         <v>2.28</v>
       </c>
       <c r="F191" t="n">
-        <v>0.004760639999999999</v>
+        <v>4.76064</v>
       </c>
     </row>
     <row r="192">
@@ -4203,7 +4203,7 @@
         <v>2.295</v>
       </c>
       <c r="F192" t="n">
-        <v>0.00481032</v>
+        <v>4.81032</v>
       </c>
     </row>
     <row r="193">
@@ -4223,7 +4223,7 @@
         <v>2.34</v>
       </c>
       <c r="F193" t="n">
-        <v>0.004895279999999999</v>
+        <v>4.89528</v>
       </c>
     </row>
     <row r="194">
@@ -4243,7 +4243,7 @@
         <v>2.355</v>
       </c>
       <c r="F194" t="n">
-        <v>0.0049455</v>
+        <v>4.9455</v>
       </c>
     </row>
     <row r="195">
@@ -4263,7 +4263,7 @@
         <v>2.37</v>
       </c>
       <c r="F195" t="n">
-        <v>0.004977000000000001</v>
+        <v>4.977000000000001</v>
       </c>
     </row>
     <row r="196">
@@ -4283,7 +4283,7 @@
         <v>2.34</v>
       </c>
       <c r="F196" t="n">
-        <v>0.00492336</v>
+        <v>4.92336</v>
       </c>
     </row>
     <row r="197">
@@ -4303,7 +4303,7 @@
         <v>2.295</v>
       </c>
       <c r="F197" t="n">
-        <v>0.004782779999999999</v>
+        <v>4.782779999999999</v>
       </c>
     </row>
     <row r="198">
@@ -4323,7 +4323,7 @@
         <v>2.235</v>
       </c>
       <c r="F198" t="n">
-        <v>0.00465774</v>
+        <v>4.65774</v>
       </c>
     </row>
     <row r="199">
@@ -4343,7 +4343,7 @@
         <v>2.175</v>
       </c>
       <c r="F199" t="n">
-        <v>0.0045327</v>
+        <v>4.5327</v>
       </c>
     </row>
     <row r="200">
@@ -4363,7 +4363,7 @@
         <v>2.145</v>
       </c>
       <c r="F200" t="n">
-        <v>0.00444444</v>
+        <v>4.44444</v>
       </c>
     </row>
     <row r="201">
@@ -4383,7 +4383,7 @@
         <v>2.145</v>
       </c>
       <c r="F201" t="n">
-        <v>0.00443586</v>
+        <v>4.43586</v>
       </c>
     </row>
     <row r="202">
@@ -4403,7 +4403,7 @@
         <v>2.115</v>
       </c>
       <c r="F202" t="n">
-        <v>0.00436536</v>
+        <v>4.365360000000001</v>
       </c>
     </row>
     <row r="203">
@@ -4423,7 +4423,7 @@
         <v>2.145</v>
       </c>
       <c r="F203" t="n">
-        <v>0.00443586</v>
+        <v>4.43586</v>
       </c>
     </row>
     <row r="204">
@@ -4443,7 +4443,7 @@
         <v>2.145</v>
       </c>
       <c r="F204" t="n">
-        <v>0.00444444</v>
+        <v>4.44444</v>
       </c>
     </row>
     <row r="205">
@@ -4463,7 +4463,7 @@
         <v>2.175</v>
       </c>
       <c r="F205" t="n">
-        <v>0.004524</v>
+        <v>4.524</v>
       </c>
     </row>
     <row r="206">
@@ -4483,7 +4483,7 @@
         <v>2.19</v>
       </c>
       <c r="F206" t="n">
-        <v>0.00456396</v>
+        <v>4.56396</v>
       </c>
     </row>
     <row r="207">
@@ -4503,7 +4503,7 @@
         <v>2.19</v>
       </c>
       <c r="F207" t="n">
-        <v>0.004572720000000001</v>
+        <v>4.57272</v>
       </c>
     </row>
     <row r="208">
@@ -4523,7 +4523,7 @@
         <v>2.175</v>
       </c>
       <c r="F208" t="n">
-        <v>0.004524</v>
+        <v>4.524</v>
       </c>
     </row>
     <row r="209">
@@ -4543,7 +4543,7 @@
         <v>2.145</v>
       </c>
       <c r="F209" t="n">
-        <v>0.00444444</v>
+        <v>4.44444</v>
       </c>
     </row>
     <row r="210">
@@ -4563,7 +4563,7 @@
         <v>2.13</v>
       </c>
       <c r="F210" t="n">
-        <v>0.00439632</v>
+        <v>4.396319999999999</v>
       </c>
     </row>
     <row r="211">
@@ -4583,7 +4583,7 @@
         <v>2.085</v>
       </c>
       <c r="F211" t="n">
-        <v>0.00427842</v>
+        <v>4.27842</v>
       </c>
     </row>
     <row r="212">
@@ -4603,7 +4603,7 @@
         <v>2.1</v>
       </c>
       <c r="F212" t="n">
-        <v>0.0043008</v>
+        <v>4.3008</v>
       </c>
     </row>
     <row r="213">
@@ -4623,7 +4623,7 @@
         <v>2.01</v>
       </c>
       <c r="F213" t="n">
-        <v>0.00410844</v>
+        <v>4.10844</v>
       </c>
     </row>
     <row r="214">
@@ -4643,7 +4643,7 @@
         <v>1.635</v>
       </c>
       <c r="F214" t="n">
-        <v>0.0032373</v>
+        <v>3.2373</v>
       </c>
     </row>
     <row r="215">
@@ -4663,7 +4663,7 @@
         <v>1.245</v>
       </c>
       <c r="F215" t="n">
-        <v>0.00260952</v>
+        <v>2.60952</v>
       </c>
     </row>
     <row r="216">
@@ -4683,7 +4683,7 @@
         <v>0.135</v>
       </c>
       <c r="F216" t="n">
-        <v>0.00026136</v>
+        <v>0.26136</v>
       </c>
     </row>
     <row r="217">
@@ -4723,7 +4723,7 @@
         <v>0.3</v>
       </c>
       <c r="F218" t="n">
-        <v>0.0007032</v>
+        <v>0.7031999999999999</v>
       </c>
     </row>
     <row r="219">
@@ -4743,7 +4743,7 @@
         <v>2.64</v>
       </c>
       <c r="F219" t="n">
-        <v>0.005649599999999999</v>
+        <v>5.6496</v>
       </c>
     </row>
     <row r="220">
@@ -4763,7 +4763,7 @@
         <v>1.65</v>
       </c>
       <c r="F220" t="n">
-        <v>0.0035574</v>
+        <v>3.5574</v>
       </c>
     </row>
     <row r="221">
@@ -4783,7 +4783,7 @@
         <v>1.275</v>
       </c>
       <c r="F221" t="n">
-        <v>0.0028815</v>
+        <v>2.8815</v>
       </c>
     </row>
     <row r="222">
@@ -4803,7 +4803,7 @@
         <v>1.155</v>
       </c>
       <c r="F222" t="n">
-        <v>0.0025641</v>
+        <v>2.5641</v>
       </c>
     </row>
     <row r="223">
@@ -4823,7 +4823,7 @@
         <v>1.53</v>
       </c>
       <c r="F223" t="n">
-        <v>0.00313956</v>
+        <v>3.13956</v>
       </c>
     </row>
     <row r="224">
@@ -4843,7 +4843,7 @@
         <v>1.23</v>
       </c>
       <c r="F224" t="n">
-        <v>0.00265188</v>
+        <v>2.65188</v>
       </c>
     </row>
     <row r="225">
@@ -4863,7 +4863,7 @@
         <v>1.545</v>
       </c>
       <c r="F225" t="n">
-        <v>0.0031827</v>
+        <v>3.1827</v>
       </c>
     </row>
     <row r="226">
@@ -4883,7 +4883,7 @@
         <v>2.085</v>
       </c>
       <c r="F226" t="n">
-        <v>0.0043785</v>
+        <v>4.3785</v>
       </c>
     </row>
     <row r="227">
@@ -4903,7 +4903,7 @@
         <v>1.89</v>
       </c>
       <c r="F227" t="n">
-        <v>0.00407484</v>
+        <v>4.07484</v>
       </c>
     </row>
     <row r="228">
@@ -4923,7 +4923,7 @@
         <v>1.245</v>
       </c>
       <c r="F228" t="n">
-        <v>0.00277386</v>
+        <v>2.77386</v>
       </c>
     </row>
     <row r="229">
@@ -4943,7 +4943,7 @@
         <v>1.455</v>
       </c>
       <c r="F229" t="n">
-        <v>0.00300312</v>
+        <v>3.00312</v>
       </c>
     </row>
     <row r="230">
@@ -4963,7 +4963,7 @@
         <v>0.945</v>
       </c>
       <c r="F230" t="n">
-        <v>0.00207144</v>
+        <v>2.07144</v>
       </c>
     </row>
     <row r="231">
@@ -4983,7 +4983,7 @@
         <v>0.735</v>
       </c>
       <c r="F231" t="n">
-        <v>0.00168756</v>
+        <v>1.68756</v>
       </c>
     </row>
     <row r="232">
@@ -5003,7 +5003,7 @@
         <v>3.855</v>
       </c>
       <c r="F232" t="n">
-        <v>0.05016126</v>
+        <v>50.16126</v>
       </c>
     </row>
     <row r="233">
@@ -5023,7 +5023,7 @@
         <v>3.96</v>
       </c>
       <c r="F233" t="n">
-        <v>0.05046624</v>
+        <v>50.46624</v>
       </c>
     </row>
     <row r="234">
@@ -5043,7 +5043,7 @@
         <v>3.915</v>
       </c>
       <c r="F234" t="n">
-        <v>0.04884354</v>
+        <v>48.84354</v>
       </c>
     </row>
     <row r="235">
@@ -5063,7 +5063,7 @@
         <v>3.99</v>
       </c>
       <c r="F235" t="n">
-        <v>0.05024208</v>
+        <v>50.24208</v>
       </c>
     </row>
     <row r="236">
@@ -5083,7 +5083,7 @@
         <v>4.065</v>
       </c>
       <c r="F236" t="n">
-        <v>0.05016209999999999</v>
+        <v>50.16209999999999</v>
       </c>
     </row>
     <row r="237">
@@ -5103,7 +5103,7 @@
         <v>8.07</v>
       </c>
       <c r="F237" t="n">
-        <v>0.19729536</v>
+        <v>197.29536</v>
       </c>
     </row>
     <row r="238">
@@ -5123,7 +5123,7 @@
         <v>4.035</v>
       </c>
       <c r="F238" t="n">
-        <v>0.05003400000000001</v>
+        <v>50.03400000000001</v>
       </c>
     </row>
     <row r="239">
@@ -5143,7 +5143,7 @@
         <v>4.05</v>
       </c>
       <c r="F239" t="n">
-        <v>0.0499446</v>
+        <v>49.9446</v>
       </c>
     </row>
     <row r="240">
@@ -5163,7 +5163,7 @@
         <v>4.109999999999999</v>
       </c>
       <c r="F240" t="n">
-        <v>0.04982963999999999</v>
+        <v>49.82963999999999</v>
       </c>
     </row>
     <row r="241">
@@ -5183,7 +5183,7 @@
         <v>4.155</v>
       </c>
       <c r="F241" t="n">
-        <v>0.04987662</v>
+        <v>49.87662</v>
       </c>
     </row>
     <row r="242">
@@ -5203,7 +5203,7 @@
         <v>4.185</v>
       </c>
       <c r="F242" t="n">
-        <v>0.05000237999999999</v>
+        <v>50.00238</v>
       </c>
     </row>
     <row r="243">
@@ -5223,7 +5223,7 @@
         <v>4.05</v>
       </c>
       <c r="F243" t="n">
-        <v>0.0483894</v>
+        <v>48.3894</v>
       </c>
     </row>
     <row r="244">
@@ -5243,7 +5243,7 @@
         <v>4.08</v>
       </c>
       <c r="F244" t="n">
-        <v>0.04812768</v>
+        <v>48.12768</v>
       </c>
     </row>
     <row r="245">
@@ -5263,7 +5263,7 @@
         <v>4.23</v>
       </c>
       <c r="F245" t="n">
-        <v>0.04954176</v>
+        <v>49.54176</v>
       </c>
     </row>
     <row r="246">
@@ -5283,7 +5283,7 @@
         <v>4.29</v>
       </c>
       <c r="F246" t="n">
-        <v>0.04954092</v>
+        <v>49.54092</v>
       </c>
     </row>
     <row r="247">
@@ -5303,7 +5303,7 @@
         <v>4.274999999999999</v>
       </c>
       <c r="F247" t="n">
-        <v>0.0495558</v>
+        <v>49.5558</v>
       </c>
     </row>
     <row r="248">
@@ -5323,7 +5323,7 @@
         <v>4.155</v>
       </c>
       <c r="F248" t="n">
-        <v>0.04778250000000001</v>
+        <v>47.78250000000001</v>
       </c>
     </row>
     <row r="249">
@@ -5343,7 +5343,7 @@
         <v>4.215</v>
       </c>
       <c r="F249" t="n">
-        <v>0.04773066</v>
+        <v>47.73066</v>
       </c>
     </row>
     <row r="250">
@@ -5363,7 +5363,7 @@
         <v>4.29</v>
       </c>
       <c r="F250" t="n">
-        <v>0.04948944</v>
+        <v>49.48944</v>
       </c>
     </row>
     <row r="251">
@@ -5383,7 +5383,7 @@
         <v>4.2</v>
       </c>
       <c r="F251" t="n">
-        <v>0.04772880000000001</v>
+        <v>47.72880000000001</v>
       </c>
     </row>
     <row r="252">
@@ -5403,7 +5403,7 @@
         <v>4.274999999999999</v>
       </c>
       <c r="F252" t="n">
-        <v>0.04950449999999999</v>
+        <v>49.50449999999999</v>
       </c>
     </row>
     <row r="253">
@@ -5423,7 +5423,7 @@
         <v>4.274999999999999</v>
       </c>
       <c r="F253" t="n">
-        <v>0.0493335</v>
+        <v>49.3335</v>
       </c>
     </row>
     <row r="254">
@@ -5443,7 +5443,7 @@
         <v>4.245</v>
       </c>
       <c r="F254" t="n">
-        <v>0.0493269</v>
+        <v>49.3269</v>
       </c>
     </row>
     <row r="255">
@@ -5463,7 +5463,7 @@
         <v>4.2</v>
       </c>
       <c r="F255" t="n">
-        <v>0.04952640000000001</v>
+        <v>49.52640000000001</v>
       </c>
     </row>
     <row r="256">
@@ -5483,7 +5483,7 @@
         <v>4.14</v>
       </c>
       <c r="F256" t="n">
-        <v>0.05009399999999999</v>
+        <v>50.09399999999999</v>
       </c>
     </row>
     <row r="257">
@@ -5503,7 +5503,7 @@
         <v>3.3</v>
       </c>
       <c r="F257" t="n">
-        <v>0.0404448</v>
+        <v>40.4448</v>
       </c>
     </row>
     <row r="258">
@@ -5523,7 +5523,7 @@
         <v>3.33</v>
       </c>
       <c r="F258" t="n">
-        <v>0.03952044</v>
+        <v>39.52043999999999</v>
       </c>
     </row>
     <row r="259">
@@ -5543,7 +5543,7 @@
         <v>3.33</v>
       </c>
       <c r="F259" t="n">
-        <v>0.03890772000000001</v>
+        <v>38.90772</v>
       </c>
     </row>
     <row r="260">
@@ -5563,7 +5563,7 @@
         <v>3.285</v>
       </c>
       <c r="F260" t="n">
-        <v>0.04009014</v>
+        <v>40.09014000000001</v>
       </c>
     </row>
     <row r="261">
@@ -5583,7 +5583,7 @@
         <v>3.255</v>
       </c>
       <c r="F261" t="n">
-        <v>0.03866940000000001</v>
+        <v>38.6694</v>
       </c>
     </row>
     <row r="262">
@@ -5603,7 +5603,7 @@
         <v>3.36</v>
       </c>
       <c r="F262" t="n">
-        <v>0.03888192</v>
+        <v>38.88192</v>
       </c>
     </row>
     <row r="263">
@@ -5623,7 +5623,7 @@
         <v>3.315</v>
       </c>
       <c r="F263" t="n">
-        <v>0.03755231999999999</v>
+        <v>37.55231999999999</v>
       </c>
     </row>
     <row r="264">
@@ -5643,7 +5643,7 @@
         <v>3.39</v>
       </c>
       <c r="F264" t="n">
-        <v>0.04002912</v>
+        <v>40.02912</v>
       </c>
     </row>
     <row r="265">
@@ -5663,7 +5663,7 @@
         <v>3.3</v>
       </c>
       <c r="F265" t="n">
-        <v>0.03903239999999999</v>
+        <v>39.03239999999999</v>
       </c>
     </row>
     <row r="266">
@@ -5683,7 +5683,7 @@
         <v>3.495</v>
       </c>
       <c r="F266" t="n">
-        <v>0.04023444</v>
+        <v>40.23444000000001</v>
       </c>
     </row>
     <row r="267">
@@ -5703,7 +5703,7 @@
         <v>3.45</v>
       </c>
       <c r="F267" t="n">
-        <v>0.039468</v>
+        <v>39.468</v>
       </c>
     </row>
     <row r="268">
@@ -5723,7 +5723,7 @@
         <v>3.36</v>
       </c>
       <c r="F268" t="n">
-        <v>0.03697344</v>
+        <v>36.97344</v>
       </c>
     </row>
     <row r="269">
@@ -5743,7 +5743,7 @@
         <v>3.405</v>
       </c>
       <c r="F269" t="n">
-        <v>0.03851735999999999</v>
+        <v>38.51735999999999</v>
       </c>
     </row>
     <row r="270">
@@ -5763,7 +5763,7 @@
         <v>3.375</v>
       </c>
       <c r="F270" t="n">
-        <v>0.03709800000000001</v>
+        <v>37.09800000000001</v>
       </c>
     </row>
     <row r="271">
@@ -5783,7 +5783,7 @@
         <v>3.885</v>
       </c>
       <c r="F271" t="n">
-        <v>0.03902094</v>
+        <v>39.02094</v>
       </c>
     </row>
     <row r="272">
@@ -5803,7 +5803,7 @@
         <v>4.035</v>
       </c>
       <c r="F272" t="n">
-        <v>0.03555642</v>
+        <v>35.55642</v>
       </c>
     </row>
     <row r="273">
@@ -5823,7 +5823,7 @@
         <v>4.8</v>
       </c>
       <c r="F273" t="n">
-        <v>0.0337536</v>
+        <v>33.7536</v>
       </c>
     </row>
     <row r="274">
@@ -5843,7 +5843,7 @@
         <v>5.565</v>
       </c>
       <c r="F274" t="n">
-        <v>0.01264368</v>
+        <v>12.64368</v>
       </c>
     </row>
     <row r="275">
@@ -5863,7 +5863,7 @@
         <v>4.365</v>
       </c>
       <c r="F275" t="n">
-        <v>0.009410940000000001</v>
+        <v>9.410940000000002</v>
       </c>
     </row>
     <row r="276">
@@ -5883,7 +5883,7 @@
         <v>4.875</v>
       </c>
       <c r="F276" t="n">
-        <v>0.0107445</v>
+        <v>10.7445</v>
       </c>
     </row>
     <row r="277">
@@ -5903,7 +5903,7 @@
         <v>4.935</v>
       </c>
       <c r="F277" t="n">
-        <v>0.01111362</v>
+        <v>11.11362</v>
       </c>
     </row>
     <row r="278">
@@ -5923,7 +5923,7 @@
         <v>3.27</v>
       </c>
       <c r="F278" t="n">
-        <v>0.007429440000000001</v>
+        <v>7.42944</v>
       </c>
     </row>
     <row r="279">
@@ -5943,7 +5943,7 @@
         <v>3.195</v>
       </c>
       <c r="F279" t="n">
-        <v>0.007220700000000001</v>
+        <v>7.220700000000001</v>
       </c>
     </row>
     <row r="280">
@@ -5963,7 +5963,7 @@
         <v>2.58</v>
       </c>
       <c r="F280" t="n">
-        <v>0.00551088</v>
+        <v>5.51088</v>
       </c>
     </row>
     <row r="281">
@@ -5983,7 +5983,7 @@
         <v>2.94</v>
       </c>
       <c r="F281" t="n">
-        <v>0.006221040000000001</v>
+        <v>6.22104</v>
       </c>
     </row>
     <row r="282">
@@ -6003,7 +6003,7 @@
         <v>2.52</v>
       </c>
       <c r="F282" t="n">
-        <v>0.005544</v>
+        <v>5.544</v>
       </c>
     </row>
     <row r="283">
@@ -6023,7 +6023,7 @@
         <v>1.365</v>
       </c>
       <c r="F283" t="n">
-        <v>0.00320502</v>
+        <v>3.20502</v>
       </c>
     </row>
     <row r="284">
@@ -6043,7 +6043,7 @@
         <v>1.02</v>
       </c>
       <c r="F284" t="n">
-        <v>0.00229296</v>
+        <v>2.29296</v>
       </c>
     </row>
     <row r="285">
@@ -6063,7 +6063,7 @@
         <v>0.045</v>
       </c>
       <c r="F285" t="n">
-        <v>0.00010728</v>
+        <v>0.10728</v>
       </c>
     </row>
     <row r="286">
@@ -6083,7 +6083,7 @@
         <v>0.015</v>
       </c>
       <c r="F286" t="n">
-        <v>2.808e-05</v>
+        <v>0.02808</v>
       </c>
     </row>
     <row r="287">
